--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070152.136814331</v>
+        <v>1120565.616876687</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16799231.59170663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>1217434.385186759</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6548471.532648498</v>
+        <v>6860410.485772327</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>177.6799450541223</v>
       </c>
       <c r="D2" t="n">
-        <v>129.0840415841531</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -671,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234054637</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -902,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>124.3542050631095</v>
+        <v>416.5505452350796</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>64.34965323462549</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>124.7668265422409</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>341.2086548212553</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>61.43755362246813</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>388.5323444839299</v>
+        <v>372.4669202838894</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>257.2926832743553</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>357.7365669310939</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>35.34780583513581</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>35.47248331510059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2950,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>35.75633396116402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>48.25041423584356</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34780583513631</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3749,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>65.44585081287633</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>119.7254844869148</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>62.02280383276845</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>294.8841422223344</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022771</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,10 +4194,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>187.5234134555191</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1886.731882523496</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C2" t="n">
-        <v>1448.589409706919</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D2" t="n">
-        <v>1318.201488914845</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>884.4267440731403</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5593144823481</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>158.3391458505872</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>835.8047307933927</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L2" t="n">
-        <v>835.8047307933927</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M2" t="n">
-        <v>835.8047307933927</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N2" t="n">
-        <v>835.8047307933927</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O2" t="n">
-        <v>1513.270315736198</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>2190.735900679003</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2332.379232048631</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>2317.277172668346</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>2313.031453008403</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1100.058598319247</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1424.616923285459</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>2102.082508228264</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>2620.061908543259</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>2620.061908543259</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>2620.061908543259</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O3" t="n">
-        <v>2620.061908543259</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P3" t="n">
-        <v>2620.061908543259</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2577.993317935594</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2332.11387151405</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>2332.11387151405</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>2136.289685831855</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1864.263281418146</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.651074442687</v>
+        <v>1397.004082558042</v>
       </c>
       <c r="C5" t="n">
-        <v>640.5086016261107</v>
+        <v>958.8616097414656</v>
       </c>
       <c r="D5" t="n">
-        <v>204.5988168005552</v>
+        <v>522.95182491591</v>
       </c>
       <c r="E5" t="n">
-        <v>78.98850865600016</v>
+        <v>102.1936984158296</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M5" t="n">
-        <v>1844.930551071281</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N5" t="n">
-        <v>2522.396136014086</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="O5" t="n">
-        <v>2522.396136014086</v>
+        <v>2841.559791892149</v>
       </c>
       <c r="P5" t="n">
-        <v>2522.396136014086</v>
+        <v>3350.995388670476</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.426947502109</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>3418.204644819126</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>3055.587694752952</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.379232048631</v>
+        <v>2650.732240163986</v>
       </c>
       <c r="X5" t="n">
-        <v>1913.236768627942</v>
+        <v>2231.589776743297</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.950644927595</v>
+        <v>1823.30365304295</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970.2403805416282</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C7" t="n">
-        <v>797.6786690248531</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D7" t="n">
-        <v>631.8006762263758</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E7" t="n">
-        <v>462.0426724771131</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F7" t="n">
-        <v>285.3356184388692</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G7" t="n">
-        <v>119.7443434646969</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1821.638088175929</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y7" t="n">
-        <v>1162.058999260615</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D8" t="n">
-        <v>204.5988168005552</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E8" t="n">
-        <v>78.57171928314017</v>
+        <v>907.6319338329697</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>479.7645042421775</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L8" t="n">
-        <v>1344.116250983141</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M8" t="n">
-        <v>1344.116250983141</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N8" t="n">
-        <v>1344.116250983141</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2841.559791892149</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3350.995388670476</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M9" t="n">
-        <v>732.2102786755574</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N9" t="n">
-        <v>1409.675863618363</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.6393285747235</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C10" t="n">
-        <v>934.6393285747235</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D10" t="n">
-        <v>768.7613357762463</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E10" t="n">
-        <v>599.0033320269836</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F10" t="n">
-        <v>422.2962779887398</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G10" t="n">
-        <v>256.7050030145675</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H10" t="n">
-        <v>116.802828704942</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2380.620000719207</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>2093.664492589638</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1821.638088175929</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>883.1113921784387</v>
+        <v>1572.574511424863</v>
       </c>
       <c r="C11" t="n">
-        <v>883.1113921784387</v>
+        <v>1572.574511424863</v>
       </c>
       <c r="D11" t="n">
-        <v>447.2016073528832</v>
+        <v>1572.574511424863</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O11" t="n">
-        <v>1844.930551071281</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876014</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685946</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.012383954615</v>
+        <v>3593.775073685946</v>
       </c>
       <c r="V11" t="n">
-        <v>2115.395433888441</v>
+        <v>3231.158123619773</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.539979299475</v>
+        <v>2826.302669030806</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.397515878785</v>
+        <v>2407.160205610117</v>
       </c>
       <c r="Y11" t="n">
-        <v>883.1113921784387</v>
+        <v>1998.87408190977</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J12" t="n">
-        <v>379.3030186989643</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>1056.76860364177</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.76860364177</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.76860364177</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.76860364177</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O12" t="n">
-        <v>1056.76860364177</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2385311503645</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C13" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D13" t="n">
-        <v>425.7988268351121</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E13" t="n">
-        <v>256.0408230858494</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F13" t="n">
-        <v>79.33376904760556</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.868575221831</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.476820555243</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0571498693516</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>716.0341243765137</v>
+        <v>1313.352208741879</v>
       </c>
       <c r="C14" t="n">
-        <v>456.1425251094881</v>
+        <v>875.2097359253025</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1425251094881</v>
+        <v>439.299951099747</v>
       </c>
       <c r="E14" t="n">
-        <v>456.1425251094881</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876014</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685946</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3334.552771002963</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>2971.935820936789</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>2567.080366347823</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>1739.651779226787</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>402.5082084587937</v>
       </c>
       <c r="K15" t="n">
-        <v>1082.832276802227</v>
+        <v>402.5082084587937</v>
       </c>
       <c r="L15" t="n">
-        <v>1082.832276802227</v>
+        <v>402.5082084587937</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.832276802227</v>
+        <v>402.5082084587937</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.832276802227</v>
+        <v>402.5082084587937</v>
       </c>
       <c r="O15" t="n">
-        <v>1082.832276802227</v>
+        <v>402.5082084587937</v>
       </c>
       <c r="P15" t="n">
-        <v>1082.832276802227</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>764.2385311503645</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C16" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D16" t="n">
-        <v>425.7988268351121</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E16" t="n">
-        <v>256.0408230858494</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V16" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.868575221831</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.476820555243</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.0571498693516</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6449,28 +6451,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3184.458419759167</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>3148.340910707486</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>3148.340910707486</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>2978.582906958224</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>2801.87585291998</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>4686.503377120805</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.070376373911</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>4121.114868244342</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>3849.088463830633</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.696709164046</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>3376.277038478154</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>205.2000859692949</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1039.550377927473</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2114.610344180332</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>3271.658179390883</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>4397.38916282733</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3205.876241053795</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>3033.31452953702</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>2867.436536738543</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>2697.67853298928</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>4953.800644836978</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>4707.921198415434</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>4429.488197668539</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>4142.53268953897</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>3870.506285125261</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>3625.114530458674</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>3397.694859772782</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1362.571696216589</v>
+        <v>2215.042146943947</v>
       </c>
       <c r="C41" t="n">
-        <v>924.4292234000122</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D41" t="n">
-        <v>488.5194385744568</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E41" t="n">
-        <v>54.74469373275195</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M41" t="n">
-        <v>54.74469373275195</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>2522.68551383708</v>
       </c>
       <c r="P41" t="n">
-        <v>2087.141448561168</v>
+        <v>3350.995388670476</v>
       </c>
       <c r="Q41" t="n">
-        <v>2633.640234519763</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3831.387254616064</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3468.770304549891</v>
       </c>
       <c r="W41" t="n">
-        <v>2616.299853822532</v>
+        <v>3468.770304549891</v>
       </c>
       <c r="X41" t="n">
-        <v>2197.157390401843</v>
+        <v>3049.627841129201</v>
       </c>
       <c r="Y41" t="n">
-        <v>1788.871266701497</v>
+        <v>2641.341717428855</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T43" t="n">
-        <v>2490.74511363892</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U43" t="n">
-        <v>2357.414810959378</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1615.373998706392</v>
+        <v>1876.293612367987</v>
       </c>
       <c r="C44" t="n">
-        <v>1615.373998706392</v>
+        <v>1438.15113955141</v>
       </c>
       <c r="D44" t="n">
-        <v>1179.464213880837</v>
+        <v>1002.241354725855</v>
       </c>
       <c r="E44" t="n">
-        <v>745.6894690391318</v>
+        <v>568.4666098841499</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>140.5991802933576</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L44" t="n">
-        <v>666.6506660403358</v>
+        <v>1042.579691713276</v>
       </c>
       <c r="M44" t="n">
-        <v>666.6506660403358</v>
+        <v>2007.209499933971</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>2971.839308154666</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V44" t="n">
-        <v>2439.371916716048</v>
+        <v>3534.877224562897</v>
       </c>
       <c r="W44" t="n">
-        <v>2034.516462127081</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="X44" t="n">
-        <v>1615.373998706392</v>
+        <v>2710.879306553241</v>
       </c>
       <c r="Y44" t="n">
-        <v>1615.373998706392</v>
+        <v>2302.593182852895</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141555</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978197</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.87940812475</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451704</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067866</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.99006533405</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.254413150262</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>2260.31808631072</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>2584.876411276932</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>3780.321396534731</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077454</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408055</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408024</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470023</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203217</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442097</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221318</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1133.802854344633</v>
+        <v>766.0258996155653</v>
       </c>
       <c r="C46" t="n">
-        <v>961.2411428278582</v>
+        <v>593.4641880987903</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>427.586195300313</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>257.8281915510502</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>81.12113751280643</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="V46" t="n">
-        <v>1987.850487765109</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="W46" t="n">
-        <v>1798.4328984161</v>
+        <v>1430.655943687032</v>
       </c>
       <c r="X46" t="n">
-        <v>1553.041143749512</v>
+        <v>1185.264189020444</v>
       </c>
       <c r="Y46" t="n">
-        <v>1325.62147306362</v>
+        <v>957.8445183345525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>104.6408607250861</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>523.2115154696908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>514.5814108871987</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>514.5814108871987</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.337509942803763</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.76442218146531</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>687.6461816022036</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>103.9790360591064</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>652.2783132986117</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>104.640860725086</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>935.0049156307114</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>40.90465290935788</v>
+        <v>56.9700771093984</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>176.4683648140556</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>71.70043046219382</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>135.0797604404433</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25682,13 +25684,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>191.1842288432769</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>281.0814155561623</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>335.3610492302003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>64.10663834317734</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>81.78272691405232</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>625328.1906002223</v>
+        <v>625195.8648808545</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>625328.1906002223</v>
+        <v>627613.7845936373</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>625328.1906002223</v>
+        <v>627613.7845936373</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403644.5375802506</v>
+        <v>508975.2225291891</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403644.5375802506</v>
+        <v>508975.2225291891</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619325.094937665</v>
+        <v>619325.0949376652</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619325.0949376652</v>
+        <v>619325.094937665</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403644.5375802506</v>
+        <v>508975.222529189</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403644.5375802506</v>
+        <v>508975.2225291891</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26319,16 @@
         <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>206027.355575999</v>
+        <v>259790.0117267069</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>259790.0117267069</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
         <v>316114.5504824114</v>
@@ -26347,13 +26349,13 @@
         <v>316114.5504824113</v>
       </c>
       <c r="N2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.3555759991</v>
+        <v>259790.0117267068</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>259790.0117267069</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537229</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690573</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973269</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>119310.1515554629</v>
+        <v>70589.62447862086</v>
       </c>
       <c r="D4" t="n">
-        <v>119310.1515554629</v>
+        <v>70589.62447862087</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284756</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284756</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049265</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827529</v>
+        <v>11707.02872284756</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284756</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436187</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436187</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102182.9018306223</v>
+        <v>-98354.68443669283</v>
       </c>
       <c r="C6" t="n">
-        <v>127144.6731418906</v>
+        <v>59092.32254589</v>
       </c>
       <c r="D6" t="n">
-        <v>127144.6731418906</v>
+        <v>158229.2560012623</v>
       </c>
       <c r="E6" t="n">
-        <v>155137.08924928</v>
+        <v>188841.0715494975</v>
       </c>
       <c r="F6" t="n">
-        <v>155137.08924928</v>
+        <v>188841.0715494975</v>
       </c>
       <c r="G6" t="n">
-        <v>61357.8185076848</v>
+        <v>140860.2489492205</v>
       </c>
       <c r="H6" t="n">
         <v>224151.1063061262</v>
@@ -26543,10 +26545,10 @@
         <v>224151.1063061262</v>
       </c>
       <c r="J6" t="n">
-        <v>45105.84821847426</v>
+        <v>49499.75758842002</v>
       </c>
       <c r="K6" t="n">
-        <v>224151.1063061262</v>
+        <v>145175.5898163935</v>
       </c>
       <c r="L6" t="n">
         <v>224151.1063061262</v>
@@ -26558,10 +26560,10 @@
         <v>224151.1063061262</v>
       </c>
       <c r="O6" t="n">
-        <v>155137.0892492801</v>
+        <v>188841.0715494974</v>
       </c>
       <c r="P6" t="n">
-        <v>155137.08924928</v>
+        <v>188841.0715494975</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274777</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274777</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>256.0811030342886</v>
       </c>
       <c r="D2" t="n">
-        <v>302.4666453931468</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.423368029025</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>305.0827923301783</v>
+        <v>12.88645215820816</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>74.15349933190373</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>304.6701708510469</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>59.59824522182168</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.33579611060328</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>104.6408607250861</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>523.2115154696908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>514.5814108871987</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>514.5814108871987</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.337509942803763</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,22 +35649,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.76442218146531</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>687.6461816022036</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36358,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36437,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>103.9790360591064</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37555,16 +37557,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>652.2783132986117</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>104.640860725086</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>935.0049156307114</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120565.616876687</v>
+        <v>1119819.414886538</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799231.59170663</v>
+        <v>16799231.59170662</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>177.6799450541223</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>139.4558578025105</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -679,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -822,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>39.88277234054637</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -904,10 +904,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>416.5505452350796</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>209.1833651608275</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>14.14416275345349</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.2086548212553</v>
+        <v>137.785156888042</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>156.6723176990463</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>372.4669202838894</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1615,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>357.7365669310939</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>65.03322933374587</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.25041423584356</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>95.77701626796905</v>
       </c>
       <c r="U41" t="n">
-        <v>65.44585081287633</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3979,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>390.8723941523539</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>62.02280383276845</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480022771</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1819.558022317326</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.083330343465</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.173545517909</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3988006762045</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>141.0418768474983</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>801.8819313892767</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>801.8819313892767</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>801.8819313892767</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.81718876183</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1397.004082558042</v>
+        <v>1814.061104940071</v>
       </c>
       <c r="C5" t="n">
-        <v>958.8616097414656</v>
+        <v>1375.918632123494</v>
       </c>
       <c r="D5" t="n">
-        <v>522.95182491591</v>
+        <v>940.0088472979385</v>
       </c>
       <c r="E5" t="n">
-        <v>102.1936984158296</v>
+        <v>506.2341024562337</v>
       </c>
       <c r="F5" t="n">
-        <v>78.3666728654414</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="G5" t="n">
-        <v>78.3666728654414</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H5" t="n">
-        <v>78.3666728654414</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I5" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
-        <v>77.94988349258141</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K5" t="n">
-        <v>912.3001754507594</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L5" t="n">
-        <v>1876.929983671454</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M5" t="n">
-        <v>1876.929983671454</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N5" t="n">
-        <v>1876.929983671454</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>2841.559791892149</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P5" t="n">
-        <v>3350.995388670476</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q5" t="n">
-        <v>3897.494174629071</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R5" t="n">
         <v>3897.494174629071</v>
@@ -4597,22 +4597,22 @@
         <v>3897.494174629071</v>
       </c>
       <c r="T5" t="n">
-        <v>3677.426947502109</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U5" t="n">
-        <v>3418.204644819126</v>
+        <v>3638.271871946088</v>
       </c>
       <c r="V5" t="n">
-        <v>3055.587694752952</v>
+        <v>3275.654921879915</v>
       </c>
       <c r="W5" t="n">
-        <v>2650.732240163986</v>
+        <v>2870.799467290948</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.589776743297</v>
+        <v>2451.657003870259</v>
       </c>
       <c r="Y5" t="n">
-        <v>1823.30365304295</v>
+        <v>2240.360675424979</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G6" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H6" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I6" t="n">
-        <v>77.94988349258141</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J6" t="n">
-        <v>77.94988349258141</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K6" t="n">
-        <v>77.94988349258141</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L6" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M6" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N6" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O6" t="n">
-        <v>1741.18964497139</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P6" t="n">
-        <v>1741.18964497139</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q6" t="n">
-        <v>1741.18964497139</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R6" t="n">
         <v>1741.18964497139</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1157.008044104463</v>
+        <v>766.0258996155653</v>
       </c>
       <c r="C7" t="n">
-        <v>984.4463325876878</v>
+        <v>593.4641880987903</v>
       </c>
       <c r="D7" t="n">
-        <v>818.5683397892105</v>
+        <v>427.586195300313</v>
       </c>
       <c r="E7" t="n">
-        <v>648.8103360399477</v>
+        <v>257.8281915510502</v>
       </c>
       <c r="F7" t="n">
-        <v>472.1032820017039</v>
+        <v>257.8281915510502</v>
       </c>
       <c r="G7" t="n">
-        <v>306.5120070275316</v>
+        <v>92.23691657687789</v>
       </c>
       <c r="H7" t="n">
-        <v>166.6098327179061</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I7" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J7" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L7" t="n">
         <v>857.497904996368</v>
@@ -4761,16 +4761,16 @@
         <v>1989.63785623031</v>
       </c>
       <c r="V7" t="n">
-        <v>1989.63785623031</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="W7" t="n">
-        <v>1821.638088175929</v>
+        <v>1430.655943687032</v>
       </c>
       <c r="X7" t="n">
-        <v>1576.246333509342</v>
+        <v>1185.264189020444</v>
       </c>
       <c r="Y7" t="n">
-        <v>1348.82666282345</v>
+        <v>957.8445183345525</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2215.458936316807</v>
+        <v>2504.589090873591</v>
       </c>
       <c r="C8" t="n">
-        <v>1777.31646350023</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="D8" t="n">
-        <v>1341.406678674675</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E8" t="n">
-        <v>907.6319338329697</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F8" t="n">
-        <v>479.7645042421775</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G8" t="n">
-        <v>78.3666728654414</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H8" t="n">
-        <v>78.3666728654414</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I8" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J8" t="n">
-        <v>77.94988349258141</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K8" t="n">
-        <v>912.3001754507594</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L8" t="n">
-        <v>1876.929983671454</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M8" t="n">
-        <v>1876.929983671454</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N8" t="n">
-        <v>1876.929983671454</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O8" t="n">
-        <v>2841.559791892149</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P8" t="n">
-        <v>3350.995388670476</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q8" t="n">
-        <v>3897.494174629071</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R8" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T8" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U8" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V8" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="W8" t="n">
-        <v>3469.187093922751</v>
+        <v>3758.317248479534</v>
       </c>
       <c r="X8" t="n">
-        <v>3050.044630502061</v>
+        <v>3339.174785058845</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.758506801715</v>
+        <v>2930.888661358498</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H9" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I9" t="n">
         <v>104.013556653039</v>
@@ -4886,19 +4886,19 @@
         <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L9" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M9" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N9" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O9" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P9" t="n">
         <v>1083.277928244975</v>
@@ -4959,13 +4959,13 @@
         <v>166.6098327179061</v>
       </c>
       <c r="I10" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J10" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L10" t="n">
         <v>857.497904996368</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1572.574511424863</v>
+        <v>1665.048786680278</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.574511424863</v>
+        <v>1665.048786680278</v>
       </c>
       <c r="D11" t="n">
-        <v>1572.574511424863</v>
+        <v>1229.139001854722</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.345299016893</v>
+        <v>795.3642570130174</v>
       </c>
       <c r="F11" t="n">
-        <v>768.4778694261013</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="G11" t="n">
-        <v>367.0800380493652</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H11" t="n">
-        <v>77.94988349258141</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I11" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J11" t="n">
         <v>513.2045709454993</v>
@@ -5047,46 +5047,46 @@
         <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>1347.554862903677</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M11" t="n">
-        <v>1347.554862903677</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.901640863328</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084022</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.841323917419</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q11" t="n">
-        <v>3728.340109876014</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R11" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T11" t="n">
-        <v>3593.775073685946</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U11" t="n">
-        <v>3593.775073685946</v>
+        <v>3418.204644819127</v>
       </c>
       <c r="V11" t="n">
-        <v>3231.158123619773</v>
+        <v>3055.587694752953</v>
       </c>
       <c r="W11" t="n">
-        <v>2826.302669030806</v>
+        <v>2650.732240163987</v>
       </c>
       <c r="X11" t="n">
-        <v>2407.160205610117</v>
+        <v>2231.589776743298</v>
       </c>
       <c r="Y11" t="n">
-        <v>1998.87408190977</v>
+        <v>1823.303653042951</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H12" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I12" t="n">
         <v>104.013556653039</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>928.4459205695127</v>
+        <v>902.7568199049658</v>
       </c>
       <c r="C13" t="n">
-        <v>755.8842090527377</v>
+        <v>730.1951083881908</v>
       </c>
       <c r="D13" t="n">
-        <v>590.0062162542604</v>
+        <v>564.3171155897135</v>
       </c>
       <c r="E13" t="n">
-        <v>420.2482125049976</v>
+        <v>394.5591118404507</v>
       </c>
       <c r="F13" t="n">
-        <v>243.5411584667538</v>
+        <v>217.8520578022069</v>
       </c>
       <c r="G13" t="n">
-        <v>77.94988349258141</v>
+        <v>217.8520578022069</v>
       </c>
       <c r="H13" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I13" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J13" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L13" t="n">
         <v>857.497904996368</v>
@@ -5226,25 +5226,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2676.370324352697</v>
+        <v>2650.68122368815</v>
       </c>
       <c r="T13" t="n">
-        <v>2430.490877931152</v>
+        <v>2404.801777266605</v>
       </c>
       <c r="U13" t="n">
-        <v>2152.057877184257</v>
+        <v>2126.36877651971</v>
       </c>
       <c r="V13" t="n">
-        <v>1865.102369054688</v>
+        <v>1839.413268390141</v>
       </c>
       <c r="W13" t="n">
-        <v>1593.075964640979</v>
+        <v>1567.386863976432</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.684209974392</v>
+        <v>1321.995109309845</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.2645392885</v>
+        <v>1094.575438623953</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1313.352208741879</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C14" t="n">
-        <v>875.2097359253025</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D14" t="n">
-        <v>439.299951099747</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E14" t="n">
-        <v>77.94988349258141</v>
+        <v>907.6319338329698</v>
       </c>
       <c r="F14" t="n">
-        <v>77.94988349258141</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="G14" t="n">
-        <v>77.94988349258141</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H14" t="n">
-        <v>77.94988349258141</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I14" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J14" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K14" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.184671124372</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M14" t="n">
-        <v>2353.531449084022</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N14" t="n">
-        <v>2353.531449084022</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="O14" t="n">
-        <v>2353.531449084022</v>
+        <v>2841.55979189215</v>
       </c>
       <c r="P14" t="n">
-        <v>3181.841323917419</v>
+        <v>3669.869666725546</v>
       </c>
       <c r="Q14" t="n">
-        <v>3728.340109876014</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R14" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T14" t="n">
-        <v>3593.775073685946</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U14" t="n">
-        <v>3334.552771002963</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V14" t="n">
-        <v>2971.935820936789</v>
+        <v>3534.877224562898</v>
       </c>
       <c r="W14" t="n">
-        <v>2567.080366347823</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X14" t="n">
-        <v>2147.937902927134</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y14" t="n">
-        <v>1739.651779226787</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H15" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I15" t="n">
-        <v>77.94988349258141</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J15" t="n">
-        <v>402.5082084587937</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>402.5082084587937</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L15" t="n">
-        <v>402.5082084587937</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M15" t="n">
-        <v>402.5082084587937</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N15" t="n">
-        <v>402.5082084587937</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5082084587937</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P15" t="n">
         <v>1083.277928244975</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>928.4459205695127</v>
+        <v>1068.348094879138</v>
       </c>
       <c r="C16" t="n">
-        <v>755.8842090527377</v>
+        <v>895.7863833623632</v>
       </c>
       <c r="D16" t="n">
-        <v>590.0062162542604</v>
+        <v>729.9083905638859</v>
       </c>
       <c r="E16" t="n">
-        <v>420.2482125049976</v>
+        <v>560.1503868146231</v>
       </c>
       <c r="F16" t="n">
-        <v>243.5411584667538</v>
+        <v>383.4433327763792</v>
       </c>
       <c r="G16" t="n">
-        <v>77.94988349258141</v>
+        <v>217.8520578022069</v>
       </c>
       <c r="H16" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I16" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J16" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L16" t="n">
         <v>857.497904996368</v>
@@ -5463,25 +5463,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2676.370324352697</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T16" t="n">
-        <v>2430.490877931152</v>
+        <v>2570.393052240777</v>
       </c>
       <c r="U16" t="n">
-        <v>2152.057877184257</v>
+        <v>2291.960051493882</v>
       </c>
       <c r="V16" t="n">
-        <v>1865.102369054688</v>
+        <v>2005.004543364313</v>
       </c>
       <c r="W16" t="n">
-        <v>1593.075964640979</v>
+        <v>1732.978138950605</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.684209974392</v>
+        <v>1487.586384284017</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.2645392885</v>
+        <v>1260.166713598125</v>
       </c>
     </row>
     <row r="17">
@@ -5521,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,13 +6308,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
         <v>1107.588885023173</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436392</v>
@@ -6940,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.023562068816</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321675</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532226</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968673</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -6964,25 +6964,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7083,10 +7083,10 @@
         <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2215.042146943947</v>
+        <v>1779.549151491251</v>
       </c>
       <c r="C41" t="n">
-        <v>1776.89967412737</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="D41" t="n">
-        <v>1340.989889301815</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E41" t="n">
-        <v>907.2151444601097</v>
+        <v>907.6319338329698</v>
       </c>
       <c r="F41" t="n">
-        <v>479.3477148693175</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="G41" t="n">
-        <v>77.94988349258141</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H41" t="n">
-        <v>77.94988349258141</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I41" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>77.94988349258141</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K41" t="n">
-        <v>912.3001754507594</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L41" t="n">
-        <v>1876.929983671454</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M41" t="n">
-        <v>1876.929983671454</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N41" t="n">
-        <v>1876.929983671454</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O41" t="n">
-        <v>2522.68551383708</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P41" t="n">
-        <v>3350.995388670476</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q41" t="n">
         <v>3897.494174629071</v>
@@ -7441,22 +7441,22 @@
         <v>3897.494174629071</v>
       </c>
       <c r="T41" t="n">
-        <v>3897.494174629071</v>
+        <v>3800.749713752335</v>
       </c>
       <c r="U41" t="n">
-        <v>3831.387254616064</v>
+        <v>3800.749713752335</v>
       </c>
       <c r="V41" t="n">
-        <v>3468.770304549891</v>
+        <v>3438.132763686162</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.770304549891</v>
+        <v>3033.277309097195</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.627841129201</v>
+        <v>2614.134845676506</v>
       </c>
       <c r="Y41" t="n">
-        <v>2641.341717428855</v>
+        <v>2205.848721976159</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G42" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H42" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I42" t="n">
         <v>104.013556653039</v>
@@ -7493,19 +7493,19 @@
         <v>428.5718816192513</v>
       </c>
       <c r="K42" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L42" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M42" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N42" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O42" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P42" t="n">
         <v>1083.277928244975</v>
@@ -7560,19 +7560,19 @@
         <v>243.5411584667538</v>
       </c>
       <c r="G43" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H43" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I43" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J43" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L43" t="n">
         <v>857.497904996368</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1876.293612367987</v>
+        <v>2025.357433385351</v>
       </c>
       <c r="C44" t="n">
-        <v>1438.15113955141</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.241354725855</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E44" t="n">
-        <v>568.4666098841499</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F44" t="n">
-        <v>140.5991802933576</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G44" t="n">
-        <v>77.94988349258141</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H44" t="n">
-        <v>77.94988349258141</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I44" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>77.94988349258141</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K44" t="n">
-        <v>77.94988349258141</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L44" t="n">
-        <v>1042.579691713276</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M44" t="n">
-        <v>2007.209499933971</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.839308154666</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O44" t="n">
-        <v>3897.494174629071</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P44" t="n">
-        <v>3897.494174629071</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q44" t="n">
-        <v>3897.494174629071</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R44" t="n">
         <v>3897.494174629071</v>
@@ -7681,19 +7681,19 @@
         <v>3897.494174629071</v>
       </c>
       <c r="U44" t="n">
-        <v>3897.494174629071</v>
+        <v>3638.271871946088</v>
       </c>
       <c r="V44" t="n">
-        <v>3534.877224562897</v>
+        <v>3275.654921879915</v>
       </c>
       <c r="W44" t="n">
-        <v>3130.021769973931</v>
+        <v>2870.799467290948</v>
       </c>
       <c r="X44" t="n">
-        <v>2710.879306553241</v>
+        <v>2451.657003870259</v>
       </c>
       <c r="Y44" t="n">
-        <v>2302.593182852895</v>
+        <v>2451.657003870259</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2740.426158141555</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C45" t="n">
-        <v>2633.969696978197</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D45" t="n">
-        <v>2538.87940812475</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E45" t="n">
-        <v>2444.758993451704</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F45" t="n">
-        <v>2361.375155067866</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G45" t="n">
-        <v>2275.99006533405</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H45" t="n">
-        <v>2234.254413150262</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I45" t="n">
-        <v>2260.31808631072</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J45" t="n">
-        <v>2584.876411276932</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K45" t="n">
-        <v>3239.582457902655</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L45" t="n">
-        <v>3239.582457902655</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M45" t="n">
-        <v>3239.582457902655</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N45" t="n">
-        <v>3239.582457902655</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O45" t="n">
-        <v>3239.582457902655</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P45" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q45" t="n">
-        <v>3780.321396534731</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R45" t="n">
-        <v>3897.494174629071</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S45" t="n">
-        <v>3834.038737077454</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T45" t="n">
-        <v>3703.860093408055</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U45" t="n">
-        <v>3527.523546408024</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V45" t="n">
-        <v>3328.406028470023</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W45" t="n">
-        <v>3143.083274203217</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X45" t="n">
-        <v>2988.215838442097</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y45" t="n">
-        <v>2861.730059221318</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.0258996155653</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C46" t="n">
-        <v>593.4641880987903</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D46" t="n">
-        <v>427.586195300313</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8281915510502</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F46" t="n">
-        <v>81.12113751280643</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G46" t="n">
-        <v>77.94988349258141</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H46" t="n">
-        <v>77.94988349258141</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I46" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J46" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L46" t="n">
         <v>857.497904996368</v>
@@ -7830,28 +7830,28 @@
         <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2673.191672100753</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2513.950303398749</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T46" t="n">
-        <v>2268.070856977205</v>
+        <v>2659.053001466102</v>
       </c>
       <c r="U46" t="n">
-        <v>1989.63785623031</v>
+        <v>2380.620000719207</v>
       </c>
       <c r="V46" t="n">
-        <v>1702.68234810074</v>
+        <v>2093.664492589638</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.655943687032</v>
+        <v>1821.638088175929</v>
       </c>
       <c r="X46" t="n">
-        <v>1185.264189020444</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y46" t="n">
-        <v>957.8445183345525</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>88.52591951400984</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>514.5814108871987</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>974.3735436572676</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>514.5814108871987</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="N11" t="n">
-        <v>41.76442218146508</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>974.3735436572674</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M14" t="n">
-        <v>41.76442218146531</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>229.9237453570968</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022036</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>974.3735436572676</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>652.2783132986117</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>974.3735436572676</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M44" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>974.3735436572679</v>
       </c>
-      <c r="O44" t="n">
-        <v>935.0049156307114</v>
-      </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>265.3642570810124</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>56.9700771093984</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>71.70043046219382</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>335.7736707093312</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.6500182959537</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>122.0895385877227</v>
       </c>
       <c r="U41" t="n">
-        <v>191.1842288432769</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>42.88865393605698</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>335.3610492302003</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619325.0949376652</v>
+        <v>619325.094937665</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619325.0949376652</v>
+        <v>619325.094937665</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508975.222529189</v>
+        <v>508975.2225291892</v>
       </c>
     </row>
     <row r="16">
@@ -26331,7 +26331,7 @@
         <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824113</v>
@@ -26352,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>259790.0117267068</v>
+        <v>259790.011726707</v>
       </c>
       <c r="P2" t="n">
-        <v>259790.0117267069</v>
+        <v>259790.011726707</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>99136.93345537229</v>
+        <v>99136.93345537239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83290.85735690573</v>
+        <v>83290.85735690568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>78975.51648973269</v>
+        <v>78975.51648973278</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
-        <v>70589.62447862086</v>
+        <v>70589.62447862083</v>
       </c>
       <c r="D4" t="n">
-        <v>70589.62447862087</v>
+        <v>70589.62447862083</v>
       </c>
       <c r="E4" t="n">
         <v>11707.02872284756</v>
@@ -26435,7 +26435,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>92869.51145436187</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="D5" t="n">
-        <v>92869.51145436187</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="E5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="F5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="P5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98354.68443669283</v>
+        <v>-98354.68443669281</v>
       </c>
       <c r="C6" t="n">
-        <v>59092.32254589</v>
+        <v>59092.3225458899</v>
       </c>
       <c r="D6" t="n">
         <v>158229.2560012623</v>
       </c>
       <c r="E6" t="n">
-        <v>188841.0715494975</v>
+        <v>188583.1616319661</v>
       </c>
       <c r="F6" t="n">
-        <v>188841.0715494975</v>
+        <v>188583.161631966</v>
       </c>
       <c r="G6" t="n">
-        <v>140860.2489492205</v>
+        <v>140837.0246098379</v>
       </c>
       <c r="H6" t="n">
-        <v>224151.1063061262</v>
+        <v>224127.8819667435</v>
       </c>
       <c r="I6" t="n">
-        <v>224151.1063061262</v>
+        <v>224127.8819667435</v>
       </c>
       <c r="J6" t="n">
-        <v>49499.75758842002</v>
+        <v>49476.53324903735</v>
       </c>
       <c r="K6" t="n">
-        <v>145175.5898163935</v>
+        <v>145152.3654770107</v>
       </c>
       <c r="L6" t="n">
-        <v>224151.1063061262</v>
+        <v>224127.8819667435</v>
       </c>
       <c r="M6" t="n">
-        <v>224151.1063061261</v>
+        <v>224127.8819667435</v>
       </c>
       <c r="N6" t="n">
-        <v>224151.1063061262</v>
+        <v>224127.8819667435</v>
       </c>
       <c r="O6" t="n">
-        <v>188841.0715494974</v>
+        <v>188583.1616319661</v>
       </c>
       <c r="P6" t="n">
-        <v>188841.0715494975</v>
+        <v>188583.1616319661</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="D4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="E4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="F4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>306.8583370494105</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>303.8869597274777</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494105</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494105</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>303.8869597274777</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>256.0811030342886</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>289.9811395907773</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.07191583437728</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.423368029025</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.88645215820816</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>195.0198973025156</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>124.3589898130757</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>59.59824522182168</v>
+        <v>263.021743155035</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>88.52591951400984</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L5" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>514.5814108871987</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L8" t="n">
-        <v>974.3735436572676</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>514.5814108871987</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645586</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="N11" t="n">
-        <v>41.76442218146508</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>974.3735436572674</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M14" t="n">
-        <v>41.76442218146531</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>229.9237453570968</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022036</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36360,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>-7.351962456398325e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37323,7 +37323,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-7.351962456398325e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>974.3735436572676</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>652.2783132986117</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37861,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>974.3735436572676</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M44" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>974.3735436572679</v>
       </c>
-      <c r="O44" t="n">
-        <v>935.0049156307114</v>
-      </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
